--- a/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
+++ b/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
@@ -19,7 +19,7 @@
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
   <si>
-    <t>2023-04-04</t>
+    <t>2023-04-06</t>
   </si>
   <si>
     <t>中国科学院天津工业生物技术研究所</t>

--- a/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
+++ b/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
@@ -262,10 +262,19 @@
     <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCA</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|L|</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCA</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|L|</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>C1</t>
   </si>
   <si>
     <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCC</t>
@@ -274,34 +283,79 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|L|</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCAC</t>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|L|</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCG</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|L|</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGC</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|L|</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|L|</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|L|</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|u|R|</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>B2</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|R|</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|R|</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>D2</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
@@ -310,115 +364,250 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|R|</t>
   </si>
   <si>
-    <t>G1</t>
+    <t>E2</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|R|</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|R|</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|R|</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|R|</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|R|</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|L|</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCC</t>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|L|</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|L|</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGAATTTG</t>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|L|</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>F3</t>
   </si>
   <si>
     <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|L|</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGT</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|L|</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>H3</t>
   </si>
   <si>
     <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
   </si>
   <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|L|</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|L|</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAA</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|L|</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+  </si>
+  <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|R|</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>D4</t>
   </si>
   <si>
     <t>GGTCCAGAGTTAAGTCCGTGCAGAAATGCGGG</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|R|</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGTAAAGTTCGGACTTTTCTGGA</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|R|</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTATAAAAGTTTGGTGAAGTCTTGTT</t>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTATAAAAGTTTGGTGAAGTCTTGT</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|R|</t>
   </si>
   <si>
-    <t>G2</t>
+    <t>G4</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTTTCCAAAATATCATTACCCACTGG</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|R|</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTATCCCTTCTCCGGCATCATCGT</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|R|</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>A5</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTGCAGCACACCGAGCAAAAGC</t>
   </si>
   <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|R|</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCGGAATTTACTATCCCGGCCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|R|</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCAGTGGCGCACCGCTATG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|R|</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCTCCAGAACGCGGTCGAGT</t>
+  </si>
+  <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|sgRNA|L|</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTT</t>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGT</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|sgRNA|R|</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>F5</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|sgRNA|R|</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|sgRNA|R|</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>H5</t>
   </si>
   <si>
     <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
@@ -427,7 +616,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|sgRNA|R|</t>
   </si>
   <si>
-    <t>D3</t>
+    <t>A6</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
@@ -436,16 +625,43 @@
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|sgRNA|R|</t>
   </si>
   <si>
-    <t>E3</t>
+    <t>B6</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|sgRNA|R|</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|sgRNA|R|</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|sgRNA|R|</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>M1|ccdb_plasmid;primer|ccdb|L|</t>
   </si>
   <si>
-    <t>F3</t>
+    <t>F6</t>
   </si>
   <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
@@ -454,34 +670,52 @@
     <t>M1|ccdb_plasmid;primer|ccdb|R|</t>
   </si>
   <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGA</t>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|L|</t>
   </si>
   <si>
-    <t>H3</t>
+    <t>H6</t>
   </si>
   <si>
     <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|L|</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|R|</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTTACGGCTCAAACGGGC</t>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|R|</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p1|1|</t>
   </si>
   <si>
-    <t>B4</t>
+    <t>D7</t>
   </si>
   <si>
     <t>TGGTCAATGTCGCGGGGG</t>
@@ -490,7 +724,7 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|1|</t>
   </si>
   <si>
-    <t>C4</t>
+    <t>E7</t>
   </si>
   <si>
     <t>TGCTCACCCAGAAACGCTG</t>
@@ -499,16 +733,70 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|2|</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>F7</t>
   </si>
   <si>
     <t>TACCGCTCGCCGCAGCC</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|3|</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>acaggatctggcgaaagagtgcg</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|4|</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>cgcgaagtggttgagcagga</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|1|</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>GCAACGGAACTATCCCTCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|1|</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>GCGCGCACATTCAGGCCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|1|</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>ACAGCCCTGAACTGCCAAACCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|1|</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>CCGTCAATGCTTGGTTCGGCC</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|1|</t>
   </si>
   <si>
-    <t>E4</t>
+    <t>E8</t>
   </si>
   <si>
     <t>ACACCATCTACACCCGCGACA</t>
@@ -517,7 +805,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|1|</t>
   </si>
   <si>
-    <t>F4</t>
+    <t>F8</t>
   </si>
   <si>
     <t>ACCTTGGGCCTGGCGCT</t>
@@ -526,7 +814,7 @@
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|1|</t>
   </si>
   <si>
-    <t>G4</t>
+    <t>G8</t>
   </si>
   <si>
     <t>GGAGCCACCACAGACCCGT</t>
@@ -535,16 +823,61 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|1|</t>
   </si>
   <si>
-    <t>H4</t>
+    <t>H8</t>
   </si>
   <si>
     <t>AGGACTCGACGAGCTCCACA</t>
   </si>
   <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|1|</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>CCACCGACGTGACGCGGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|2|</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>AGGCGGGCCTTTTCCACGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|2|</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>TGCTGCTCGCCACCGTGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|2|</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>ACCAAATAAATGTTAGACCCAGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|2|</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>TGTCTAGGTACTTCCGCAGCCA</t>
+  </si>
+  <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|2|</t>
   </si>
   <si>
-    <t>A5</t>
+    <t>F9</t>
   </si>
   <si>
     <t>CCACGGATGGTGCCCTCA</t>
@@ -553,7 +886,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|2|</t>
   </si>
   <si>
-    <t>B5</t>
+    <t>G9</t>
   </si>
   <si>
     <t>AGGTTCCACTGATTCACACCCA</t>
@@ -562,7 +895,7 @@
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|2|</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>H9</t>
   </si>
   <si>
     <t>TGGTGAAAGATGCACGACCTGGA</t>
@@ -571,10 +904,19 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|2|</t>
   </si>
   <si>
-    <t>D5</t>
+    <t>A10</t>
   </si>
   <si>
     <t>AGAAGAATCCCCGCAGCTCTG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|2|</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>AGCCGACCACCGCATCCC</t>
   </si>
 </sst>
 </file>
@@ -678,7 +1020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D46" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D84" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -974,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,7 +1526,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1198,7 +1540,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1212,7 +1554,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1240,7 +1582,7 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1254,7 +1596,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1268,7 +1610,7 @@
         <v>58</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1282,7 +1624,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1310,7 +1652,7 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1324,7 +1666,7 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1338,7 +1680,7 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1352,7 +1694,7 @@
         <v>76</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1366,7 +1708,7 @@
         <v>79</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1380,7 +1722,7 @@
         <v>82</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1394,7 +1736,7 @@
         <v>85</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1408,7 +1750,7 @@
         <v>88</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1422,7 +1764,7 @@
         <v>91</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1436,7 +1778,7 @@
         <v>94</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1450,7 +1792,7 @@
         <v>97</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1464,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1478,7 +1820,7 @@
         <v>103</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1492,7 +1834,7 @@
         <v>106</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1506,7 +1848,7 @@
         <v>109</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1520,7 +1862,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1534,7 +1876,7 @@
         <v>115</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1548,7 +1890,7 @@
         <v>118</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1562,7 +1904,7 @@
         <v>121</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1576,7 +1918,7 @@
         <v>124</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1590,7 +1932,7 @@
         <v>127</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1604,7 +1946,7 @@
         <v>130</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1618,7 +1960,7 @@
         <v>133</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1632,7 +1974,7 @@
         <v>136</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1646,7 +1988,7 @@
         <v>139</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1660,7 +2002,539 @@
         <v>142</v>
       </c>
       <c r="D45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69">
         <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>250</v>
+      </c>
+      <c r="D81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
+++ b/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="279">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
   <si>
-    <t>2023-04-27</t>
+    <t>2023-05-04</t>
   </si>
   <si>
     <t>中国科学院天津工业生物技术研究所</t>
@@ -583,13 +583,79 @@
     <t>E5</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGT</t>
+    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttgggtgcacgagtgggttacatcgaactggatctcaacagcggtaag</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|sgRNA|L|</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAACCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|sgRNA|L|</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTCTGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|sgRNA|L|</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|sgRNA|L|</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTGGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|sgRNA|L|</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCTAGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|sgRNA|L|</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATTAGTTTTAGAGCTAGAAATAGCAAGT</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|sgRNA|R|</t>
   </si>
   <si>
-    <t>F5</t>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTccaaCAGCGTTTCTGGGTGAGCAA</t>
+  </si>
+  <si>
+    <t>F6</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
@@ -598,7 +664,7 @@
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|sgRNA|R|</t>
   </si>
   <si>
-    <t>G5</t>
+    <t>G6</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
@@ -607,7 +673,7 @@
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|sgRNA|R|</t>
   </si>
   <si>
-    <t>H5</t>
+    <t>H6</t>
   </si>
   <si>
     <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
@@ -616,7 +682,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|sgRNA|R|</t>
   </si>
   <si>
-    <t>A6</t>
+    <t>A7</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
@@ -625,7 +691,7 @@
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|sgRNA|R|</t>
   </si>
   <si>
-    <t>B6</t>
+    <t>B7</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
@@ -634,7 +700,7 @@
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|sgRNA|R|</t>
   </si>
   <si>
-    <t>C6</t>
+    <t>C7</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
@@ -643,7 +709,7 @@
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|sgRNA|R|</t>
   </si>
   <si>
-    <t>D6</t>
+    <t>D7</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
@@ -652,7 +718,7 @@
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|sgRNA|R|</t>
   </si>
   <si>
-    <t>E6</t>
+    <t>E7</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
@@ -661,7 +727,7 @@
     <t>M1|ccdb_plasmid;primer|ccdb|L|</t>
   </si>
   <si>
-    <t>F6</t>
+    <t>F7</t>
   </si>
   <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
@@ -670,7 +736,7 @@
     <t>M1|ccdb_plasmid;primer|ccdb|R|</t>
   </si>
   <si>
-    <t>G6</t>
+    <t>G7</t>
   </si>
   <si>
     <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
@@ -679,7 +745,7 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|L|</t>
   </si>
   <si>
-    <t>H6</t>
+    <t>H7</t>
   </si>
   <si>
     <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
@@ -688,7 +754,7 @@
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|L|</t>
   </si>
   <si>
-    <t>A7</t>
+    <t>A8</t>
   </si>
   <si>
     <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
@@ -697,7 +763,7 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|R|</t>
   </si>
   <si>
-    <t>B7</t>
+    <t>B8</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
@@ -706,16 +772,16 @@
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|R|</t>
   </si>
   <si>
-    <t>C7</t>
+    <t>C8</t>
   </si>
   <si>
     <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
   </si>
   <si>
-    <t>M1|153019_ecoil_ybeL_ins;153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p1|1|</t>
-  </si>
-  <si>
-    <t>D7</t>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p1|1|</t>
+  </si>
+  <si>
+    <t>D8</t>
   </si>
   <si>
     <t>TGGTCAATGTCGCGGGGG</t>
@@ -724,7 +790,7 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|1|</t>
   </si>
   <si>
-    <t>E7</t>
+    <t>E8</t>
   </si>
   <si>
     <t>TGCTCACCCAGAAACGCTG</t>
@@ -733,7 +799,7 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|2|</t>
   </si>
   <si>
-    <t>F7</t>
+    <t>F8</t>
   </si>
   <si>
     <t>TACCGCTCGCCGCAGCC</t>
@@ -742,7 +808,7 @@
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|3|</t>
   </si>
   <si>
-    <t>G7</t>
+    <t>G8</t>
   </si>
   <si>
     <t>acaggatctggcgaaagagtgcg</t>
@@ -751,7 +817,7 @@
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|4|</t>
   </si>
   <si>
-    <t>H7</t>
+    <t>H8</t>
   </si>
   <si>
     <t>cgcgaagtggttgagcagga</t>
@@ -760,7 +826,7 @@
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|1|</t>
   </si>
   <si>
-    <t>A8</t>
+    <t>A9</t>
   </si>
   <si>
     <t>GCAACGGAACTATCCCTCGA</t>
@@ -769,7 +835,7 @@
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|1|</t>
   </si>
   <si>
-    <t>B8</t>
+    <t>B9</t>
   </si>
   <si>
     <t>GCGCGCACATTCAGGCCG</t>
@@ -778,7 +844,7 @@
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|1|</t>
   </si>
   <si>
-    <t>C8</t>
+    <t>C9</t>
   </si>
   <si>
     <t>ACAGCCCTGAACTGCCAAACCA</t>
@@ -787,7 +853,7 @@
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|1|</t>
   </si>
   <si>
-    <t>D8</t>
+    <t>D9</t>
   </si>
   <si>
     <t>CCGTCAATGCTTGGTTCGGCC</t>
@@ -796,7 +862,7 @@
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|1|</t>
   </si>
   <si>
-    <t>E8</t>
+    <t>E9</t>
   </si>
   <si>
     <t>ACACCATCTACACCCGCGACA</t>
@@ -805,7 +871,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|1|</t>
   </si>
   <si>
-    <t>F8</t>
+    <t>F9</t>
   </si>
   <si>
     <t>ACCTTGGGCCTGGCGCT</t>
@@ -814,7 +880,7 @@
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|1|</t>
   </si>
   <si>
-    <t>G8</t>
+    <t>G9</t>
   </si>
   <si>
     <t>GGAGCCACCACAGACCCGT</t>
@@ -823,7 +889,7 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|1|</t>
   </si>
   <si>
-    <t>H8</t>
+    <t>H9</t>
   </si>
   <si>
     <t>AGGACTCGACGAGCTCCACA</t>
@@ -832,7 +898,7 @@
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|1|</t>
   </si>
   <si>
-    <t>A9</t>
+    <t>A10</t>
   </si>
   <si>
     <t>CCACCGACGTGACGCGGA</t>
@@ -841,7 +907,7 @@
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|2|</t>
   </si>
   <si>
-    <t>B9</t>
+    <t>B10</t>
   </si>
   <si>
     <t>AGGCGGGCCTTTTCCACGT</t>
@@ -850,7 +916,7 @@
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|2|</t>
   </si>
   <si>
-    <t>C9</t>
+    <t>C10</t>
   </si>
   <si>
     <t>TGCTGCTCGCCACCGTGA</t>
@@ -859,7 +925,7 @@
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|2|</t>
   </si>
   <si>
-    <t>D9</t>
+    <t>D10</t>
   </si>
   <si>
     <t>ACCAAATAAATGTTAGACCCAGT</t>
@@ -868,7 +934,7 @@
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|2|</t>
   </si>
   <si>
-    <t>E9</t>
+    <t>E10</t>
   </si>
   <si>
     <t>TGTCTAGGTACTTCCGCAGCCA</t>
@@ -877,7 +943,7 @@
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|2|</t>
   </si>
   <si>
-    <t>F9</t>
+    <t>F10</t>
   </si>
   <si>
     <t>CCACGGATGGTGCCCTCA</t>
@@ -886,7 +952,7 @@
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|2|</t>
   </si>
   <si>
-    <t>G9</t>
+    <t>G10</t>
   </si>
   <si>
     <t>AGGTTCCACTGATTCACACCCA</t>
@@ -895,7 +961,7 @@
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|2|</t>
   </si>
   <si>
-    <t>H9</t>
+    <t>H10</t>
   </si>
   <si>
     <t>TGGTGAAAGATGCACGACCTGGA</t>
@@ -904,7 +970,7 @@
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|2|</t>
   </si>
   <si>
-    <t>A10</t>
+    <t>A11</t>
   </si>
   <si>
     <t>AGAAGAATCCCCGCAGCTCTG</t>
@@ -913,7 +979,7 @@
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|2|</t>
   </si>
   <si>
-    <t>B10</t>
+    <t>B11</t>
   </si>
   <si>
     <t>AGCCGACCACCGCATCCC</t>
@@ -1020,7 +1086,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D84" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D92" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1316,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2016,354 +2082,354 @@
         <v>145</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
         <v>146</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>147</v>
       </c>
-      <c r="C47" t="s">
-        <v>148</v>
-      </c>
       <c r="D47">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
         <v>149</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>150</v>
       </c>
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
       <c r="D48">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
         <v>152</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>153</v>
       </c>
-      <c r="C49" t="s">
-        <v>154</v>
-      </c>
       <c r="D49">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
         <v>155</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>157</v>
-      </c>
       <c r="D50">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
         <v>158</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>159</v>
       </c>
-      <c r="C51" t="s">
-        <v>160</v>
-      </c>
       <c r="D51">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
         <v>161</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>162</v>
       </c>
-      <c r="C52" t="s">
-        <v>163</v>
-      </c>
       <c r="D52">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" t="s">
         <v>164</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>165</v>
       </c>
-      <c r="C53" t="s">
-        <v>166</v>
-      </c>
       <c r="D53">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" t="s">
         <v>167</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>168</v>
       </c>
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
       <c r="D54">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" t="s">
         <v>170</v>
       </c>
-      <c r="B55" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" t="s">
-        <v>172</v>
-      </c>
       <c r="D55">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
         <v>173</v>
       </c>
-      <c r="B56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" t="s">
-        <v>175</v>
-      </c>
       <c r="D56">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" t="s">
         <v>176</v>
       </c>
-      <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" t="s">
-        <v>178</v>
-      </c>
       <c r="D57">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
         <v>179</v>
       </c>
-      <c r="B58" t="s">
-        <v>180</v>
-      </c>
-      <c r="C58" t="s">
-        <v>181</v>
-      </c>
       <c r="D58">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" t="s">
         <v>182</v>
       </c>
-      <c r="B59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" t="s">
-        <v>184</v>
-      </c>
       <c r="D59">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
         <v>185</v>
       </c>
-      <c r="B60" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" t="s">
-        <v>187</v>
-      </c>
       <c r="D60">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" t="s">
         <v>188</v>
       </c>
-      <c r="B61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" t="s">
-        <v>190</v>
-      </c>
       <c r="D61">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
         <v>191</v>
       </c>
-      <c r="B62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" t="s">
-        <v>193</v>
-      </c>
       <c r="D62">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
         <v>194</v>
       </c>
-      <c r="B63" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" t="s">
-        <v>196</v>
-      </c>
       <c r="D63">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
         <v>197</v>
       </c>
-      <c r="B64" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" t="s">
-        <v>199</v>
-      </c>
       <c r="D64">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" t="s">
         <v>200</v>
       </c>
-      <c r="B65" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" t="s">
-        <v>202</v>
-      </c>
       <c r="D65">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" t="s">
         <v>203</v>
       </c>
-      <c r="B66" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" t="s">
-        <v>205</v>
-      </c>
       <c r="D66">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" t="s">
         <v>206</v>
       </c>
-      <c r="B67" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" t="s">
-        <v>208</v>
-      </c>
       <c r="D67">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
         <v>209</v>
       </c>
-      <c r="B68" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" t="s">
-        <v>211</v>
-      </c>
       <c r="D68">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s">
         <v>212</v>
       </c>
-      <c r="B69" t="s">
-        <v>213</v>
-      </c>
-      <c r="C69" t="s">
-        <v>214</v>
-      </c>
       <c r="D69">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s">
         <v>215</v>
       </c>
-      <c r="B70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C70" t="s">
-        <v>217</v>
-      </c>
       <c r="D70">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" t="s">
         <v>218</v>
-      </c>
-      <c r="B71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" t="s">
-        <v>220</v>
       </c>
       <c r="D71">
         <v>17</v>
@@ -2371,27 +2437,27 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" t="s">
         <v>221</v>
       </c>
-      <c r="B72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" t="s">
-        <v>223</v>
-      </c>
       <c r="D72">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" t="s">
         <v>224</v>
-      </c>
-      <c r="B73" t="s">
-        <v>225</v>
-      </c>
-      <c r="C73" t="s">
-        <v>226</v>
       </c>
       <c r="D73">
         <v>20</v>
@@ -2399,141 +2465,253 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
         <v>227</v>
       </c>
-      <c r="B74" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" t="s">
-        <v>229</v>
-      </c>
       <c r="D74">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="s">
         <v>230</v>
       </c>
-      <c r="B75" t="s">
-        <v>231</v>
-      </c>
-      <c r="C75" t="s">
-        <v>232</v>
-      </c>
       <c r="D75">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
         <v>233</v>
       </c>
-      <c r="B76" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" t="s">
-        <v>235</v>
-      </c>
       <c r="D76">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
         <v>236</v>
       </c>
-      <c r="B77" t="s">
-        <v>237</v>
-      </c>
-      <c r="C77" t="s">
-        <v>238</v>
-      </c>
       <c r="D77">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
         <v>239</v>
       </c>
-      <c r="B78" t="s">
-        <v>240</v>
-      </c>
-      <c r="C78" t="s">
-        <v>241</v>
-      </c>
       <c r="D78">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
         <v>242</v>
       </c>
-      <c r="B79" t="s">
-        <v>243</v>
-      </c>
-      <c r="C79" t="s">
-        <v>244</v>
-      </c>
       <c r="D79">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" t="s">
         <v>245</v>
       </c>
-      <c r="B80" t="s">
-        <v>246</v>
-      </c>
-      <c r="C80" t="s">
-        <v>247</v>
-      </c>
       <c r="D80">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" t="s">
         <v>248</v>
       </c>
-      <c r="B81" t="s">
-        <v>249</v>
-      </c>
-      <c r="C81" t="s">
-        <v>250</v>
-      </c>
       <c r="D81">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" t="s">
         <v>251</v>
       </c>
-      <c r="B82" t="s">
-        <v>252</v>
-      </c>
-      <c r="C82" t="s">
-        <v>253</v>
-      </c>
       <c r="D82">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" t="s">
         <v>254</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>255</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
         <v>256</v>
       </c>
-      <c r="D83">
+      <c r="C84" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91">
         <v>18</v>
       </c>
     </row>

--- a/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
+++ b/output/only_primer/two_plasmid_system_result/two_plasmid_primer_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="314">
   <si>
     <t>中国科学院天津工业生物技术研究所引物合成订购单</t>
   </si>
@@ -259,7 +259,7 @@
     <t>A1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCA</t>
+    <t>CCAGAAGACAATCCTCGGAACCGGCGAAAGCAAAGC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|L|</t>
@@ -268,7 +268,7 @@
     <t>B1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCA</t>
+    <t>CCAGAAGACAATCCTCTTGAAGGTCTTGAGGCGGTACGT</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|L|</t>
@@ -277,7 +277,7 @@
     <t>C1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCC</t>
+    <t>CCAGAAGACAATCCTGTGCGCTAATTGTATTCATCATCGG</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|L|</t>
@@ -286,7 +286,7 @@
     <t>D1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGG</t>
+    <t>CCAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|L|</t>
@@ -295,7 +295,7 @@
     <t>E1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCG</t>
+    <t>CCAGAAGACAATCCTACACGCAATCGTATAACCCAAACCC</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|L|</t>
@@ -304,7 +304,7 @@
     <t>F1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCG</t>
+    <t>CCAGAAGACAATCCTACTACCTTTCTTGGACTTTCGAAGG</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|L|</t>
@@ -313,7 +313,7 @@
     <t>G1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGG</t>
+    <t>CCAGAAGACAATCCTATTAACGCCGCGCTCCCGC</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|L|</t>
@@ -322,7 +322,7 @@
     <t>H1</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGC</t>
+    <t>CCAGAAGACAATCCTTCGATCAGCTTTCTCAACCTCATCG</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|L|</t>
@@ -331,7 +331,7 @@
     <t>A2</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTG</t>
+    <t>CCAGAAGACAATCCTTCCAGAAGCTCAGGGACACCCA</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|u|R|</t>
@@ -340,7 +340,7 @@
     <t>B2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+    <t>GGTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|u|R|</t>
@@ -349,7 +349,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+    <t>GGTCTTCTGTTTCGCGGACAGGCCTTCACGAC</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|u|R|</t>
@@ -358,7 +358,7 @@
     <t>D2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
+    <t>GGTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|u|R|</t>
@@ -367,7 +367,7 @@
     <t>E2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+    <t>GGTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|u|R|</t>
@@ -376,7 +376,7 @@
     <t>F2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+    <t>GGTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|u|R|</t>
@@ -385,7 +385,7 @@
     <t>G2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+    <t>GGTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|u|R|</t>
@@ -394,7 +394,7 @@
     <t>H2</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+    <t>GGTCTTCTGTTCAGACGGAGGGTCTGTTTAATGA</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|u|R|</t>
@@ -403,7 +403,7 @@
     <t>A3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+    <t>GGTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|u|R|</t>
@@ -412,7 +412,7 @@
     <t>B3</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+    <t>GGTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|L|</t>
@@ -421,7 +421,7 @@
     <t>C3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+    <t>CCAGAAGACAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|L|</t>
@@ -430,7 +430,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
+    <t>CCAGAAGACAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|L|</t>
@@ -439,7 +439,7 @@
     <t>E3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGA</t>
+    <t>CCAGAAGACAAAAAACAATTGCCTGTACATTAAGA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|L|</t>
@@ -448,7 +448,7 @@
     <t>F3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
+    <t>CCAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|L|</t>
@@ -457,7 +457,7 @@
     <t>G3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGT</t>
+    <t>CCAGAAGACAAttaaGAAAACTCCTTTATTGTCGT</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|L|</t>
@@ -466,7 +466,7 @@
     <t>H3</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
+    <t>CCAGAAGACAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|L|</t>
@@ -475,7 +475,7 @@
     <t>A4</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+    <t>CCAGAAGACAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|L|</t>
@@ -484,7 +484,7 @@
     <t>B4</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAA</t>
+    <t>CCAGAAGACAATTTATTCTTCTTCGCGCCCAATAA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|L|</t>
@@ -493,7 +493,7 @@
     <t>C4</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+    <t>CCAGAAGACAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|d|R|</t>
@@ -502,7 +502,7 @@
     <t>D4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTAAGTCCGTGCAGAAATGCGGG</t>
+    <t>GGTCTTCTGTTTAGCCAGTGGAACCCGCGC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|d|R|</t>
@@ -511,7 +511,7 @@
     <t>E4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTGTAAAGTTCGGACTTTTCTGGA</t>
+    <t>GGTCTTCTGTTGAAGCCATAGAAGCCTGCAT</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|d|R|</t>
@@ -520,7 +520,7 @@
     <t>F4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTATAAAAGTTTGGTGAAGTCTTGT</t>
+    <t>GGTCTTCTGTTAAGAACTGTACTAAATCCTGCCAGC</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|d|R|</t>
@@ -529,7 +529,7 @@
     <t>G4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTTTCCAAAATATCATTACCCACTGG</t>
+    <t>GGTCTTCTGTTCCTGTGAGTTTTCCAATGCCTTCGC</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|d|R|</t>
@@ -538,7 +538,7 @@
     <t>H4</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTATCCCTTCTCCGGCATCATCGT</t>
+    <t>GGTCTTCTGTTTCGACCTCTCCCGACTGATCACC</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|d|R|</t>
@@ -547,7 +547,7 @@
     <t>A5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTGCAGCACACCGAGCAAAAGC</t>
+    <t>GGTCTTCTGTTGTCAATTGCTGATCTACATACCA</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|d|R|</t>
@@ -556,7 +556,7 @@
     <t>B5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCCGGAATTTACTATCCCGGCCGA</t>
+    <t>GGTCTTCTGTTTATCGATCTTGATGCTATTGCGGA</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|d|R|</t>
@@ -565,7 +565,7 @@
     <t>C5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGCAGTGGCGCACCGCTATG</t>
+    <t>GGTCTTCTGTTGCACAACGGCGGGCCGAGAA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|d|R|</t>
@@ -574,415 +574,520 @@
     <t>D5</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCCTCCAGAACGCGGTCGAGT</t>
-  </si>
-  <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|sgRNA|L|</t>
+    <t>GGTCTTCTGTTCTCTACGGAGCGTGTGCGCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|sgRNA|s|</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+    <t>CGAGAAGTACACCTTCTCCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|sgRNA|s|</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAttgggtgcacgagtgggttacatcgaactggatctcaacagcggtaag</t>
-  </si>
-  <si>
-    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|sgRNA|L|</t>
+    <t>AACGCGCACGGAAATAACCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|sgRNA|s|</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAACCGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|sgRNA|L|</t>
+    <t>CGTTCGCTTTTAAGTTTTCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|sgRNA|s|</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATTCTGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|sgRNA|L|</t>
+    <t>GCTGGCGGATTAACACACCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|sgRNA|s|</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGCAGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|sgRNA|L|</t>
+    <t>GCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|sgRNA|s|</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTGGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|sgRNA|L|</t>
+    <t>ACCCTCCGTCTGCAAAGTGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|sgRNA|s|</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGCTAGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|sgRNA|L|</t>
+    <t>GAAGAATCAGAAGGTGGCTA</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|sgRNA|s|</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAATTAGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|sgRNA|R|</t>
+    <t>AGAAGAAGTCAATAAGATTA</t>
+  </si>
+  <si>
+    <t>M1|ccdb_plasmid;primer|ccdb|L|</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTccaaCAGCGTTTCTGGGTGAGCAA</t>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>M1|ccdb_plasmid;primer|ccdb|R|</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|sgRNA|R|</t>
+    <t>GGTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|L|</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|sgRNA|R|</t>
+    <t>CCAGAAGACAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|L|</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|sgRNA|R|</t>
+    <t>CCAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|R|</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|sgRNA|R|</t>
+    <t>GGTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|R|</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|sgRNA|R|</t>
+    <t>GGTCTTCTGTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p1|1|</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|sgRNA|R|</t>
+    <t>TGGTCAATGTCGCGGGGG</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|1|</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|sgRNA|R|</t>
+    <t>TGCTCACCCAGAAACGCTG</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|2|</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>M1|ccdb_plasmid;primer|ccdb|L|</t>
+    <t>TACCGCTCGCCGCAGCC</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|3|</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
-  </si>
-  <si>
-    <t>M1|ccdb_plasmid;primer|ccdb|R|</t>
+    <t>AGCATCTCCGAGCGCAACT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|p2|3|</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|L|</t>
+    <t>ACCACCGAGTTTGATTTCGAAACG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|p2|3|</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|L|</t>
+    <t>GCAGCCGCCGACATCGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|p2|3|</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|s|R|</t>
+    <t>GCCTGTTGTTGGGCGCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|3|</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|s|R|</t>
+    <t>CCCAGCAGCGCCCACGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|p2|3|</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p1|1|</t>
+    <t>ACGTTGCAGTGGAGCAGCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|p2|3|</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>TGGTCAATGTCGCGGGGG</t>
-  </si>
-  <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|1|</t>
+    <t>TGGTCGCACCCTTCTTATCGA</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|p2|3|</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>TGCTCACCCAGAAACGCTG</t>
-  </si>
-  <si>
-    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|2|</t>
+    <t>CGGCATAAAACGCTCAGTGGTGG</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|p2|3|</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>TACCGCTCGCCGCAGCC</t>
-  </si>
-  <si>
-    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|3|</t>
+    <t>ACCGTGGTCAATGTGGGCA</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|4|</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>acaggatctggcgaaagagtgcg</t>
+    <t>CACTGAGCGAACGCCTGCG</t>
+  </si>
+  <si>
+    <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|p2|4|</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>TGCGCTACCACAAGATCGTGCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|p2|4|</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>ACTGGCATTAATCTCGGCTTCGCA</t>
+  </si>
+  <si>
+    <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|p2|4|</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>GGCACGCCGATTCCTTGGAC</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|4|</t>
   </si>
   <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>cgcgaagtggttgagcagga</t>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>cctggcaggcactacagaaacact</t>
+  </si>
+  <si>
+    <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|p2|4|</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>CCGGATCGCTTTGAGGGTCGT</t>
+  </si>
+  <si>
+    <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|p2|4|</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>TCCCTGATTATGCTGCTGC</t>
+  </si>
+  <si>
+    <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|p2|4|</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>CCGACCATGAGCTTTTTCATCGCC</t>
+  </si>
+  <si>
+    <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|p2|4|</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>CGGACAGGACCTTGGGTTCGT</t>
+  </si>
+  <si>
+    <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|p2|5|</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>TCACTGCGTACAAAGAGGGCCT</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|5|</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>gcccatagcgcgcgtg</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|6|</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>acccgctctctgatcatcacca</t>
+  </si>
+  <si>
+    <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|p2|7|</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>CCCGGTGTTGGGCGACTGT</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|1|</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>GCAACGGAACTATCCCTCGA</t>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGA</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|1|</t>
   </si>
   <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>GCGCGCACATTCAGGCCG</t>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|1|</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>ACAGCCCTGAACTGCCAAACCA</t>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>ACCACGCCGCGGTAGGTG</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|1|</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>CCGTCAATGCTTGGTTCGGCC</t>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGA</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|1|</t>
   </si>
   <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>ACACCATCTACACCCGCGACA</t>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|1|</t>
   </si>
   <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>ACCTTGGGCCTGGCGCT</t>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>TGGTGGCCGCGGTTGGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|1|</t>
   </si>
   <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>GGAGCCACCACAGACCCGT</t>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|1|</t>
   </si>
   <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>AGGACTCGACGAGCTCCACA</t>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>TGCTCCGGTGCAGGCGC</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|1|</t>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>CCACCGACGTGACGCGGA</t>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCC</t>
   </si>
   <si>
     <t>M1|Cgl0006_1176_G_A_sub;BA000036.3:6529-6530|g|2|</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>AGGCGGGCCTTTTCCACGT</t>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>GCCAAGAAACCGGCCAGGA</t>
   </si>
   <si>
     <t>M1|Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092|g|2|</t>
   </si>
   <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>TGCTGCTCGCCACCGTGA</t>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>GGTGTAGGGGTCGCAGGTTCA</t>
   </si>
   <si>
     <t>M1|Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875|g|2|</t>
   </si>
   <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>ACCAAATAAATGTTAGACCCAGT</t>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>GCTCCGTTGATGCCAGCGC</t>
   </si>
   <si>
     <t>M1|Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020|g|2|</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>TGTCTAGGTACTTCCGCAGCCA</t>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>AGCAGTTGGAGCGCGATGC</t>
   </si>
   <si>
     <t>M1|Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459|g|2|</t>
   </si>
   <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>CCACGGATGGTGCCCTCA</t>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>GCCAGAAGCTCGCGTGGGA</t>
   </si>
   <si>
     <t>M1|Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470|g|2|</t>
   </si>
   <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>AGGTTCCACTGATTCACACCCA</t>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>TGTGTTCATGCTGGCTGGTGA</t>
   </si>
   <si>
     <t>M1|Cgl0141_cds_del;BA000036.3:153222-155613|g|2|</t>
   </si>
   <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>TGGTGAAAGATGCACGACCTGGA</t>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>TGGTACGTGGCTACCGGCG</t>
   </si>
   <si>
     <t>M1|153019_ecoil_ybeL_ins;BA000036.3:153019-153020|g|2|</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>AGAAGAATCCCCGCAGCTCTG</t>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>GGCACCTGCGTCGGTTGG</t>
   </si>
   <si>
     <t>M1|Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378|g|2|</t>
   </si>
   <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>AGCCGACCACCGCATCCC</t>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>GCCTCGCCATCGTCACAGGT</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1191,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D92" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:D103" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1382,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,7 +1683,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1592,7 +1697,7 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1606,7 +1711,7 @@
         <v>43</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1620,7 +1725,7 @@
         <v>46</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1648,7 +1753,7 @@
         <v>52</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1662,7 +1767,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1690,7 +1795,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1956,7 +2061,7 @@
         <v>118</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1970,7 +2075,7 @@
         <v>121</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1984,7 +2089,7 @@
         <v>124</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2012,7 +2117,7 @@
         <v>130</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2026,7 +2131,7 @@
         <v>133</v>
       </c>
       <c r="D42">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2040,7 +2145,7 @@
         <v>136</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2054,7 +2159,7 @@
         <v>139</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2082,438 +2187,438 @@
         <v>145</v>
       </c>
       <c r="D46">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D58">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D60">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D61">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D63">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D65">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D68">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D72">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D76">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D77">
         <v>21</v>
@@ -2521,111 +2626,111 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D85">
         <v>23</v>
@@ -2633,27 +2738,27 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D87">
         <v>18</v>
@@ -2661,58 +2766,212 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D88">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D90">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101">
         <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
